--- a/neutralization_assays/data/neut_plate_reader_data/mAb_1C04_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/mAb_1C04_NeutralizationAssay.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="26840" windowHeight="11560" activeTab="1"/>
+    <workbookView xWindow="31160" yWindow="460" windowWidth="29680" windowHeight="17440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -12,6 +17,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,7 +41,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -95,7 +102,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -124,7 +130,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -186,7 +191,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -312,12 +316,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -364,6 +362,12 @@
   </si>
   <si>
     <t>4/27/2019 9:53:38 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -397,7 +401,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -814,13 +817,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -836,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -844,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -852,7 +855,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -860,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -868,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -876,7 +879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -884,17 +887,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -902,12 +905,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -918,7 +921,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -929,7 +932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -940,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -951,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -962,7 +965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -973,7 +976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -984,7 +987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -995,7 +998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1017,71 +1020,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B33">
         <v>8524</v>
@@ -1120,9 +1120,9 @@
         <v>8439</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>29585</v>
@@ -1161,9 +1161,9 @@
         <v>30322</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>27914</v>
@@ -1202,9 +1202,9 @@
         <v>8244</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>25822</v>
@@ -1243,9 +1243,9 @@
         <v>8276</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>26500</v>
@@ -1284,9 +1284,9 @@
         <v>8268</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>24853</v>
@@ -1325,23 +1325,23 @@
         <v>29910</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1350,12 +1350,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1387,15 +1387,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1419,17 +1419,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1437,12 +1437,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1552,71 +1552,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6723</v>
@@ -1655,9 +1652,9 @@
         <v>6677</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>27674</v>
@@ -1696,9 +1693,9 @@
         <v>29999</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>26850</v>
@@ -1737,9 +1734,9 @@
         <v>31863</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>25878</v>
@@ -1778,9 +1775,9 @@
         <v>29859</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>24766</v>
@@ -1819,9 +1816,9 @@
         <v>28837</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25792</v>
@@ -1860,21 +1857,21 @@
         <v>26956</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>